--- a/examples/example_1.xlsx
+++ b/examples/example_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\keywords-api\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA0084B-F010-4C5B-B17B-7C97321A2FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D46F55-D29F-419C-8057-C0B3545633B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{3CC9FB01-C3D9-0741-A2EB-F79783B99684}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{3CC9FB01-C3D9-0741-A2EB-F79783B99684}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="150">
   <si>
     <t>Seedwords</t>
   </si>
@@ -46,13 +47,451 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>SearchVolume</t>
+  </si>
+  <si>
+    <t>CPC (USD)</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Query Source</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>bsci audit checklist</t>
+  </si>
+  <si>
+    <t>bsci audit cost</t>
+  </si>
+  <si>
+    <t>bsci audit full form</t>
+  </si>
+  <si>
+    <t>bsci audit report</t>
+  </si>
+  <si>
+    <t>bsci audit meaning</t>
+  </si>
+  <si>
+    <t>bsci audit rating system</t>
+  </si>
+  <si>
+    <t>bsci audit fee</t>
+  </si>
+  <si>
+    <t>bsci audited factory</t>
+  </si>
+  <si>
+    <t>bsci audit requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsci audit </t>
+  </si>
+  <si>
+    <t>bsci audit agency in india</t>
+  </si>
+  <si>
+    <t>bsci audit a</t>
+  </si>
+  <si>
+    <t>bsci approved audit firms</t>
+  </si>
+  <si>
+    <t>bsci amfori audit</t>
+  </si>
+  <si>
+    <t>bsci audit performance areas</t>
+  </si>
+  <si>
+    <t>bsci audit checklist for apparel industry</t>
+  </si>
+  <si>
+    <t>bsci semi announced audit</t>
+  </si>
+  <si>
+    <t>amfori bsci audit checklist</t>
+  </si>
+  <si>
+    <t>amfori bsci audit report</t>
+  </si>
+  <si>
+    <t>what is a bsci audit</t>
+  </si>
+  <si>
+    <t>a bsci audit</t>
+  </si>
+  <si>
+    <t>how to become a bsci auditor</t>
+  </si>
+  <si>
+    <t>bsci audit process</t>
+  </si>
+  <si>
+    <t>how to check bsci audit report</t>
+  </si>
+  <si>
+    <t>bsci audit bangla</t>
+  </si>
+  <si>
+    <t>bsci audit b</t>
+  </si>
+  <si>
+    <t>bsci audit bureau veritas</t>
+  </si>
+  <si>
+    <t>bsci audit bv</t>
+  </si>
+  <si>
+    <t>bsci audit certification body</t>
+  </si>
+  <si>
+    <t>bsci audit firm in bangladesh</t>
+  </si>
+  <si>
+    <t>bsci audit checklist in bangladesh</t>
+  </si>
+  <si>
+    <t>bsci audit report in bangladesh</t>
+  </si>
+  <si>
+    <t>bsci audit firm list in bangladesh</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2020 pdf</t>
+  </si>
+  <si>
+    <t>bsci audit c</t>
+  </si>
+  <si>
+    <t>bsci audit company list</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2019 pdf</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2019</t>
+  </si>
+  <si>
+    <t>bsci compliant</t>
+  </si>
+  <si>
+    <t>c bsci audit</t>
+  </si>
+  <si>
+    <t>certification bsci</t>
+  </si>
+  <si>
+    <t>bsci certification meaning</t>
+  </si>
+  <si>
+    <t>bsci audit documents</t>
+  </si>
+  <si>
+    <t>bsci audit d</t>
+  </si>
+  <si>
+    <t>bsci audit expiry date</t>
+  </si>
+  <si>
+    <t>bsci audit report download</t>
+  </si>
+  <si>
+    <t>bsci audit result d</t>
+  </si>
+  <si>
+    <t>what is bsci audit</t>
+  </si>
+  <si>
+    <t>what is rsp in bsci audit</t>
+  </si>
+  <si>
+    <t>bsci report</t>
+  </si>
+  <si>
+    <t>d bsci audit</t>
+  </si>
+  <si>
+    <t>bsci audit extension</t>
+  </si>
+  <si>
+    <t>bsci audit e</t>
+  </si>
+  <si>
+    <t>bsci ethical audit</t>
+  </si>
+  <si>
+    <t>bsci audit firm</t>
+  </si>
+  <si>
+    <t>bsci audit f</t>
+  </si>
+  <si>
+    <t>bsci audit factory</t>
+  </si>
+  <si>
+    <t>bsci audit frequency</t>
+  </si>
+  <si>
+    <t>bsci audit grading system</t>
+  </si>
+  <si>
+    <t>bsci audit g</t>
+  </si>
+  <si>
+    <t>bsci audit guidelines</t>
+  </si>
+  <si>
+    <t>bsci social audit guidelines</t>
+  </si>
+  <si>
+    <t>bsci audit là gì</t>
+  </si>
+  <si>
+    <t>gültigkeit bsci audit</t>
+  </si>
+  <si>
+    <t>b.s.c.i</t>
+  </si>
+  <si>
+    <t>bsci audit h</t>
+  </si>
+  <si>
+    <t>bsci email</t>
+  </si>
+  <si>
+    <t>bsci audit id</t>
+  </si>
+  <si>
+    <t>bsci audit i</t>
+  </si>
+  <si>
+    <t>bsci audit intertek</t>
+  </si>
+  <si>
+    <t>bsci audit indonesia</t>
+  </si>
+  <si>
+    <t>bsci internal audit checklist</t>
+  </si>
+  <si>
+    <t>bsci internal audit</t>
+  </si>
+  <si>
+    <t>bsci audit kosten</t>
+  </si>
+  <si>
+    <t>bsci audit k</t>
+  </si>
+  <si>
+    <t>bsci audit login</t>
+  </si>
+  <si>
+    <t>bsci audit l</t>
+  </si>
+  <si>
+    <t>bsci auditor list</t>
+  </si>
+  <si>
+    <t>bsci lead auditor course</t>
+  </si>
+  <si>
+    <t>bsci lead auditor</t>
+  </si>
+  <si>
+    <t>bsci audit malaysia</t>
+  </si>
+  <si>
+    <t>bsci audit m</t>
+  </si>
+  <si>
+    <t>bsci audit manual</t>
+  </si>
+  <si>
+    <t>bsci audit methodology</t>
+  </si>
+  <si>
+    <t>bsci audit platform</t>
+  </si>
+  <si>
+    <t>bsci audit p</t>
+  </si>
+  <si>
+    <t>bsci audit procedure</t>
+  </si>
+  <si>
+    <t>bsci audit checklist pdf</t>
+  </si>
+  <si>
+    <t>bsci audit validity period</t>
+  </si>
+  <si>
+    <t>amfori bsci audit platform</t>
+  </si>
+  <si>
+    <t>bsci audit report pdf</t>
+  </si>
+  <si>
+    <t>bsci audit questionnaire</t>
+  </si>
+  <si>
+    <t>bsci audit q</t>
+  </si>
+  <si>
+    <t>bsci audit questions</t>
+  </si>
+  <si>
+    <t>bsci audit report 2020</t>
+  </si>
+  <si>
+    <t>bsci audit r</t>
+  </si>
+  <si>
+    <t>bsci audit result</t>
+  </si>
+  <si>
+    <t>bsci audit request</t>
+  </si>
+  <si>
+    <t>bsci audit score</t>
+  </si>
+  <si>
+    <t>bsci audit s</t>
+  </si>
+  <si>
+    <t>bsci audit standard</t>
+  </si>
+  <si>
+    <t>bsci audit sgs</t>
+  </si>
+  <si>
+    <t>bsci audit summary report</t>
+  </si>
+  <si>
+    <t>bsci audit scope</t>
+  </si>
+  <si>
+    <t>bsci audit system</t>
+  </si>
+  <si>
+    <t>bsci social audit checklist</t>
+  </si>
+  <si>
+    <t>bsci audit template</t>
+  </si>
+  <si>
+    <t>bsci audit t</t>
+  </si>
+  <si>
+    <t>bsci audit types</t>
+  </si>
+  <si>
+    <t>tuv bsci audit checklist</t>
+  </si>
+  <si>
+    <t>bsci unannounced audit</t>
+  </si>
+  <si>
+    <t>bsci audit u</t>
+  </si>
+  <si>
+    <t>bsci follow up audit</t>
+  </si>
+  <si>
+    <t>bsci audit report validity</t>
+  </si>
+  <si>
+    <t>bsci audit v</t>
+  </si>
+  <si>
+    <t>amfori bsci audit rating</t>
+  </si>
+  <si>
+    <t>bsci audit wikipedia</t>
+  </si>
+  <si>
+    <t>bsci audit w</t>
+  </si>
+  <si>
+    <t>bsci audit walmart</t>
+  </si>
+  <si>
+    <t>www.bsci audit.com</t>
+  </si>
+  <si>
+    <t>bsci inc</t>
+  </si>
+  <si>
+    <t>bsci audit z</t>
+  </si>
+  <si>
+    <t>bsci company</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2020</t>
+  </si>
+  <si>
+    <t>bsci audit 2</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2021</t>
+  </si>
+  <si>
+    <t>bsci audit checklist 2021 pdf</t>
+  </si>
+  <si>
+    <t>bsci audit questionnaire 2018</t>
+  </si>
+  <si>
+    <t>bsci social compliance</t>
+  </si>
+  <si>
+    <t>bsci audit 5</t>
+  </si>
+  <si>
+    <t>bsci social compliance audit</t>
+  </si>
+  <si>
+    <t>bsci certified</t>
+  </si>
+  <si>
+    <t>bsci social audit w</t>
+  </si>
+  <si>
+    <t>4 c's of auditing</t>
+  </si>
+  <si>
+    <t>4 bsci social audit</t>
+  </si>
+  <si>
+    <t>soc 4</t>
+  </si>
+  <si>
+    <t>4c audit</t>
+  </si>
+  <si>
+    <t>soc 4 audit</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +520,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,11 +546,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +869,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -444,14 +889,22 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -491,6 +944,1925 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D267CD3B-32AB-458C-B1F4-F2289BCD3241}">
+  <dimension ref="A1:E112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>2.7715630531311035</v>
+      </c>
+      <c r="D2">
+        <v>0.12960235774517059</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.28571429848670959</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7.1428574621677399E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2.114448070526123</v>
+      </c>
+      <c r="D18">
+        <v>0.3571428656578064</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>4.76190485060215E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.24489796161651611</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3.5714287310838699E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>6.3942599296569824</v>
+      </c>
+      <c r="D45">
+        <v>3.2967034727334976E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>1600</v>
+      </c>
+      <c r="C56">
+        <v>3.8806169033050537</v>
+      </c>
+      <c r="D56">
+        <v>7.9925000667572021E-2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>1.3937282375991344E-2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101">
+        <v>110</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1.9305018708109856E-2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108">
+        <v>320</v>
+      </c>
+      <c r="C108">
+        <v>3.3097989559173584</v>
+      </c>
+      <c r="D108">
+        <v>0.1600392758846283</v>
+      </c>
+      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2.9154520016163588E-3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
